--- a/RE-Framework_RPA06_부동산공시가격_박채연/Data/Output/부동산공시가격_박채연.xlsx
+++ b/RE-Framework_RPA06_부동산공시가격_박채연/Data/Output/부동산공시가격_박채연.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA06_부동산공시가격_박채연\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F63252B-B7F9-4363-927B-3000A8BCBF5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC2F717-AEF3-4ED1-8FA6-EE232BBBE384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-23955" yWindow="5970" windowWidth="21600" windowHeight="11295" firstSheet="0" activeTab="1" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <x:workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="1" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="회원목록" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
   </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <x:si>
     <x:r>
       <x:rPr>
@@ -199,20 +210,6 @@
   <x:si>
     <x:r>
       <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="3"/>
-      </x:rPr>
-      <x:t>RPA</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color theme="1"/>
@@ -836,6 +833,1398 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:t>A0011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>광주광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>백석길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>상무양우내안애</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>105동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>광주광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>백석길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>상무양우내안애</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>105동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0013</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>전라북도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>임실군</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>삼일로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>상아프라자</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>강원도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>인제군</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>원통로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>혜진아파트</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>B동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>강원특별자치도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>춘천시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>학곡동길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>장미빌라</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>B</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>B동 301</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0016</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>제주특별자치도</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>제주시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>용마로3길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>다온캐슬</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>다온캐슬</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0017</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>울산광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>울주군</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>연안4길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>진성아트빌1차</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0018</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>대구광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>수성구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>청솔로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>힐스테이트황금엘포레</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0019</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>대구광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>수성구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>청솔로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>힐스테이트황금엘포레</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0020</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>대구광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>중구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서성로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>경진테크빌101동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0021</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>대구광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>중구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서성로13길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>도일하이츠</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0022</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>중랑구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>봉화산로8길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>해피리움</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0023</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>은평구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>백련산로14길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>국제빌라(46-2)</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>동명없음</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0024</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>은평구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>백련산로14길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>국제빌라(95-16)</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>동명없음</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0025</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>종로구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>인왕산로1길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>칠갑산빌라</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>칠갑산빌라</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0026</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>성북구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>북악산로1나길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>산장주택</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>동명없음</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>비01</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0027</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>성북구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>북악산로1나길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>스카이뷰(508-71)</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0028</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>용산구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서빙고로75가길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>리버힐</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>씨</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0029</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서울특별시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>용산구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>서빙고로75가길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>리버힐에이동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>동명없음</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0030</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>인천광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>계양구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>계양대로139번길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>세양아트빌라</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0031</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>인천광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>계양구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>계양대로</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>광명아트빌1동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>A0032</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>대전광역시</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>유성구</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>지족로190번길</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>트리풀시티포레아파트</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>105동</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
     <x:t>고객번호</x:t>
   </x:si>
   <x:si>
@@ -926,6 +2315,9 @@
     <x:t>동명없음</x:t>
   </x:si>
   <x:si>
+    <x:t>변동없음</x:t>
+  </x:si>
+  <x:si>
     <x:t>대전광역시</x:t>
   </x:si>
   <x:si>
@@ -941,6 +2333,9 @@
     <x:t>정보없음</x:t>
   </x:si>
   <x:si>
+    <x:t>실패</x:t>
+  </x:si>
+  <x:si>
     <x:t>경기도</x:t>
   </x:si>
   <x:si>
@@ -1017,6 +2412,189 @@
   </x:si>
   <x:si>
     <x:t>102동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백석길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상무양우내안애</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임실군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼일로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상아프라자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원특별자치도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인제군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원통로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혜진아파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춘천시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학곡동길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장미빌라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B동 301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용마로3길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다온캐슬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울주군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연안4길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진성아트빌1차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대구광역시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수성구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청솔로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힐스테이트황금엘포레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서성로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경진테크빌101동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서성로13길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도일하이츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중랑구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봉화산로8길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해피리움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은평구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백련산로14길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국제빌라(46-2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국제빌라(95-16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종로구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인왕산로1길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칠갑산빌라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성북구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북악산로1나길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산장주택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스카이뷰(508-71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용산구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서빙고로75가길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리버힐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>씨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리버힐에이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계양구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계양대로139번길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세양아트빌라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계양대로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광명아트빌1동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지족로190번길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리풀시티포레아파트</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1066,7 +2644,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -1082,12 +2660,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFC000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF7030A0"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1116,7 +2688,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -1129,14 +2701,11 @@
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -1152,9 +2721,6 @@
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1164,10 +2730,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1507,12 +3069,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M11"/>
+  <x:dimension ref="A1:L33"/>
   <x:sheetViews>
-    <x:sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="H13" sqref="H13"/>
-      <x:selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <x:selection activeCell="K15" sqref="K15"/>
+      <x:selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,75 +3082,71 @@
     <x:col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <x:col min="9" max="10" width="15.625" style="1" customWidth="1"/>
     <x:col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="16.625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="7" t="s">
+    <x:row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="7" t="s">
+      <x:c r="B1" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="7" t="s">
+      <x:c r="C1" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="7" t="s">
+      <x:c r="D1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="7" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="7" t="s">
+      <x:c r="F1" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="7" t="s">
+      <x:c r="G1" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="7" t="s">
+      <x:c r="H1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="7" t="s">
+      <x:c r="I1" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="8" t="s">
+      <x:c r="J1" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="8" t="s">
+      <x:c r="K1" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="8" t="s">
+      <x:c r="L1" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>203</x:v>
@@ -1599,26 +3157,25 @@
       <x:c r="J2" s="4" t="s"/>
       <x:c r="K2" s="4" t="s"/>
       <x:c r="L2" s="4" t="s"/>
-      <x:c r="M2" s="4" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="D3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
+      <x:c r="F3" s="1" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>101</x:v>
@@ -1632,29 +3189,28 @@
       <x:c r="J3" s="4" t="s"/>
       <x:c r="K3" s="4" t="s"/>
       <x:c r="L3" s="4" t="s"/>
-      <x:c r="M3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
+      <x:c r="D4" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="E4" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
+      <x:c r="F4" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s">
+      <x:c r="G4" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>602</x:v>
@@ -1665,59 +3221,57 @@
       <x:c r="J4" s="4" t="s"/>
       <x:c r="K4" s="4" t="s"/>
       <x:c r="L4" s="4" t="s"/>
-      <x:c r="M4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="D5" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s">
+      <x:c r="E5" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
+      <x:c r="F5" s="1" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>305</x:v>
       </x:c>
       <x:c r="I5" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s"/>
       <x:c r="K5" s="4" t="s"/>
       <x:c r="L5" s="4" t="s"/>
-      <x:c r="M5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="D6" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>202</x:v>
@@ -1728,26 +3282,25 @@
       <x:c r="J6" s="4" t="s"/>
       <x:c r="K6" s="4" t="s"/>
       <x:c r="L6" s="4" t="s"/>
-      <x:c r="M6" s="4" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="D7" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="E7" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="F7" s="1" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>603</x:v>
@@ -1760,27 +3313,27 @@
       </x:c>
       <x:c r="J7" s="4" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="s">
+      <x:c r="D8" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="s">
+      <x:c r="E8" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="F8" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s">
+      <x:c r="G8" s="1" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>51</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>305</x:v>
@@ -1790,24 +3343,24 @@
       </x:c>
       <x:c r="J8" s="4" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="D9" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>7</x:v>
@@ -1820,24 +3373,24 @@
       </x:c>
       <x:c r="J9" s="4" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="D10" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>204</x:v>
@@ -1847,27 +3400,27 @@
       </x:c>
       <x:c r="J10" s="4" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="D11" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>105</x:v>
@@ -1877,30 +3430,651 @@
       </x:c>
       <x:c r="J11" s="4" t="s"/>
     </x:row>
-    <x:row r="13" spans="1:13">
-      <x:c r="H13" s="0" t="s"/>
+    <x:row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="n">
+        <x:v>1605</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="n">
+        <x:v>342000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="n">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="I13" s="4" t="n">
+        <x:v>307000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="n">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="I14" s="4" t="n">
+        <x:v>33100000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I15" s="4" t="n">
+        <x:v>43900000</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I16" s="4" t="n">
+        <x:v>43900000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I17" s="4" t="n">
+        <x:v>133000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I18" s="4" t="n">
+        <x:v>68400000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="1" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="n">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="I19" s="4" t="n">
+        <x:v>498000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I20" s="4" t="n">
+        <x:v>471000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="n">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c r="I21" s="4" t="n">
+        <x:v>145000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="H22" s="1" t="n">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="I22" s="4" t="n">
+        <x:v>111000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="1" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H23" s="1" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="I23" s="4" t="n">
+        <x:v>233000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="n">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I24" s="4" t="n">
+        <x:v>214000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="H25" s="1" t="n">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I25" s="4" t="n">
+        <x:v>69000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="1" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F26" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="H26" s="1" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="I26" s="4" t="n">
+        <x:v>132000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="H27" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I27" s="4" t="n">
+        <x:v>115000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E28" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F28" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="H28" s="1" t="n">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="I28" s="4" t="n">
+        <x:v>132000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="H29" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I29" s="4" t="n">
+        <x:v>1218000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="1" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H30" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I30" s="4" t="n">
+        <x:v>1438000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="1" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="F31" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G31" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H31" s="1" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="I31" s="4" t="n">
+        <x:v>91300000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G32" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H32" s="1" t="n">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="I32" s="4" t="n">
+        <x:v>57500000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="1" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G33" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="H33" s="1" t="n">
+        <x:v>1303</x:v>
+      </x:c>
+      <x:c r="I33" s="4" t="n">
+        <x:v>339000000</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C9A268FA-4E51-4799-8172-1D5782D54051}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{7BB25F45-580E-403E-8815-07561C03B20A}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M11"/>
+  <x:dimension ref="A1:L33"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="H13" sqref="H13"/>
-      <x:selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <x:selection activeCell="K15" sqref="K15"/>
+      <x:selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1908,55 +4082,54 @@
     <x:col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <x:col min="3" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <x:col min="9" max="10" width="15.625" style="1" customWidth="1"/>
     <x:col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="16.625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="7" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B1" s="7" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D1" s="7" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E1" s="7" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F1" s="7" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G1" s="7" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="J1" s="8" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="K1" s="8" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L1" s="8" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="M1" s="9" t="s">
-        <x:v>80</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D1" s="6" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E1" s="6" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F1" s="6" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G1" s="6" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="H1" s="6" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="I1" s="6" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="K1" s="7" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="L1" s="7" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1964,19 +4137,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s"/>
       <x:c r="H2" s="1" t="n">
@@ -1986,16 +4159,16 @@
         <x:v>54800000</x:v>
       </x:c>
       <x:c r="J2" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K2" s="4" t="n">
         <x:v>54100000</x:v>
       </x:c>
       <x:c r="L2" s="4" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M2" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2003,19 +4176,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>101</x:v>
@@ -2027,16 +4200,16 @@
         <x:v>61900000</x:v>
       </x:c>
       <x:c r="J3" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K3" s="4" t="n">
         <x:v>59000000</x:v>
       </x:c>
       <x:c r="L3" s="4" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M3" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2044,22 +4217,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>602</x:v>
@@ -2068,14 +4241,16 @@
         <x:v>186000000</x:v>
       </x:c>
       <x:c r="J4" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
         <x:v>186000000</x:v>
       </x:c>
-      <x:c r="L4" s="4" t="s"/>
-      <x:c r="M4" s="4" t="s">
-        <x:v>88</x:v>
+      <x:c r="L4" s="4" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2083,36 +4258,38 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s"/>
       <x:c r="H5" s="1" t="n">
         <x:v>305</x:v>
       </x:c>
       <x:c r="I5" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K5" s="4" t="n">
         <x:v>42100000</x:v>
       </x:c>
-      <x:c r="L5" s="4" t="s"/>
-      <x:c r="M5" s="4" t="s">
-        <x:v>88</x:v>
+      <x:c r="L5" s="4" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2120,22 +4297,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>202</x:v>
@@ -2144,16 +4321,16 @@
         <x:v>343000000</x:v>
       </x:c>
       <x:c r="J6" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K6" s="4" t="n">
         <x:v>330000000</x:v>
       </x:c>
       <x:c r="L6" s="4" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M6" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2161,19 +4338,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>603</x:v>
@@ -2185,16 +4362,16 @@
         <x:v>879000000</x:v>
       </x:c>
       <x:c r="J7" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K7" s="1" t="n">
         <x:v>677000000</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M7" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2202,22 +4379,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>305</x:v>
@@ -2226,16 +4403,16 @@
         <x:v>103000000</x:v>
       </x:c>
       <x:c r="J8" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K8" s="1" t="n">
         <x:v>99700000</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M8" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2243,19 +4420,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>7</x:v>
@@ -2267,16 +4444,16 @@
         <x:v>136000000</x:v>
       </x:c>
       <x:c r="J9" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K9" s="1" t="n">
         <x:v>103000000</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M9" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2284,19 +4461,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s"/>
       <x:c r="H10" s="1" t="n">
@@ -2306,16 +4483,16 @@
         <x:v>61000000</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K10" s="1" t="n">
         <x:v>61200000</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="M10" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2323,22 +4500,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>105</x:v>
@@ -2347,26 +4524,915 @@
         <x:v>158000000</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K11" s="1" t="n">
         <x:v>137000000</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="M11" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:13">
-      <x:c r="H13" s="0" t="s"/>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="n">
+        <x:v>1605</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="n">
+        <x:v>342000000</x:v>
+      </x:c>
+      <x:c r="J12" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K12" s="1" t="n">
+        <x:v>305000000</x:v>
+      </x:c>
+      <x:c r="L12" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="n">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="I13" s="4" t="n">
+        <x:v>307000000</x:v>
+      </x:c>
+      <x:c r="J13" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K13" s="1" t="n">
+        <x:v>294000000</x:v>
+      </x:c>
+      <x:c r="L13" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="n">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="I14" s="4" t="n">
+        <x:v>33100000</x:v>
+      </x:c>
+      <x:c r="J14" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K14" s="1" t="n">
+        <x:v>33100000</x:v>
+      </x:c>
+      <x:c r="L14" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I15" s="4" t="n">
+        <x:v>43900000</x:v>
+      </x:c>
+      <x:c r="J15" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
+        <x:v>38600000</x:v>
+      </x:c>
+      <x:c r="L15" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="I16" s="4" t="n">
+        <x:v>43900000</x:v>
+      </x:c>
+      <x:c r="J16" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="K16" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="L16" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="n">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="I17" s="4" t="n">
+        <x:v>133000000</x:v>
+      </x:c>
+      <x:c r="J17" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K17" s="1" t="n">
+        <x:v>126000000</x:v>
+      </x:c>
+      <x:c r="L17" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s"/>
+      <x:c r="H18" s="1" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I18" s="4" t="n">
+        <x:v>68400000</x:v>
+      </x:c>
+      <x:c r="J18" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K18" s="1" t="n">
+        <x:v>64100000</x:v>
+      </x:c>
+      <x:c r="L18" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="1" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="n">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="I19" s="4" t="n">
+        <x:v>498000000</x:v>
+      </x:c>
+      <x:c r="J19" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K19" s="1" t="n">
+        <x:v>363000000</x:v>
+      </x:c>
+      <x:c r="L19" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I20" s="4" t="n">
+        <x:v>471000000</x:v>
+      </x:c>
+      <x:c r="J20" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K20" s="1" t="n">
+        <x:v>343000000</x:v>
+      </x:c>
+      <x:c r="L20" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="n">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c r="I21" s="4" t="n">
+        <x:v>145000000</x:v>
+      </x:c>
+      <x:c r="J21" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K21" s="1" t="n">
+        <x:v>112000000</x:v>
+      </x:c>
+      <x:c r="L21" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s"/>
+      <x:c r="H22" s="1" t="n">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="I22" s="4" t="n">
+        <x:v>111000000</x:v>
+      </x:c>
+      <x:c r="J22" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K22" s="1" t="n">
+        <x:v>99300000</x:v>
+      </x:c>
+      <x:c r="L22" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="1" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s"/>
+      <x:c r="H23" s="1" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="I23" s="4" t="n">
+        <x:v>233000000</x:v>
+      </x:c>
+      <x:c r="J23" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K23" s="1" t="n">
+        <x:v>219000000</x:v>
+      </x:c>
+      <x:c r="L23" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="n">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I24" s="4" t="n">
+        <x:v>214000000</x:v>
+      </x:c>
+      <x:c r="J24" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K24" s="1" t="n">
+        <x:v>203000000</x:v>
+      </x:c>
+      <x:c r="L24" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H25" s="1" t="n">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I25" s="4" t="n">
+        <x:v>69000000</x:v>
+      </x:c>
+      <x:c r="J25" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K25" s="1" t="n">
+        <x:v>65300000</x:v>
+      </x:c>
+      <x:c r="L25" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="1" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F26" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="H26" s="1" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="I26" s="4" t="n">
+        <x:v>132000000</x:v>
+      </x:c>
+      <x:c r="J26" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K26" s="1" t="n">
+        <x:v>125000000</x:v>
+      </x:c>
+      <x:c r="L26" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H27" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="I27" s="4" t="n">
+        <x:v>115000000</x:v>
+      </x:c>
+      <x:c r="J27" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K27" s="1" t="n">
+        <x:v>108000000</x:v>
+      </x:c>
+      <x:c r="L27" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="E28" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="F28" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G28" s="1" t="s"/>
+      <x:c r="H28" s="1" t="n">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="I28" s="4" t="n">
+        <x:v>132000000</x:v>
+      </x:c>
+      <x:c r="J28" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K28" s="1" t="n">
+        <x:v>120000000</x:v>
+      </x:c>
+      <x:c r="L28" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="H29" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I29" s="4" t="n">
+        <x:v>1218000000</x:v>
+      </x:c>
+      <x:c r="J29" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K29" s="1" t="n">
+        <x:v>1153000000</x:v>
+      </x:c>
+      <x:c r="L29" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="1" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H30" s="1" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I30" s="4" t="n">
+        <x:v>1438000000</x:v>
+      </x:c>
+      <x:c r="J30" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K30" s="1" t="n">
+        <x:v>1438000000</x:v>
+      </x:c>
+      <x:c r="L30" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="1" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F31" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="G31" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H31" s="1" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="I31" s="4" t="n">
+        <x:v>91300000</x:v>
+      </x:c>
+      <x:c r="J31" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K31" s="1" t="n">
+        <x:v>87600000</x:v>
+      </x:c>
+      <x:c r="L31" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="G32" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H32" s="1" t="n">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="I32" s="4" t="n">
+        <x:v>57500000</x:v>
+      </x:c>
+      <x:c r="J32" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K32" s="1" t="n">
+        <x:v>54900000</x:v>
+      </x:c>
+      <x:c r="L32" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="1" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="G33" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H33" s="1" t="n">
+        <x:v>1303</x:v>
+      </x:c>
+      <x:c r="I33" s="4" t="n">
+        <x:v>339000000</x:v>
+      </x:c>
+      <x:c r="J33" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K33" s="1" t="n">
+        <x:v>258000000</x:v>
+      </x:c>
+      <x:c r="L33" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
